--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N2">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q2">
-        <v>0.07053026034666665</v>
+        <v>0.07617826858755555</v>
       </c>
       <c r="R2">
-        <v>0.6347723431199999</v>
+        <v>0.685604417288</v>
       </c>
       <c r="S2">
-        <v>0.0006546272528166488</v>
+        <v>0.0006063958657276091</v>
       </c>
       <c r="T2">
-        <v>0.0006546272528166488</v>
+        <v>0.000606395865727609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.820535</v>
       </c>
       <c r="O3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q3">
-        <v>0.4991374646133332</v>
+        <v>0.1712596811994445</v>
       </c>
       <c r="R3">
-        <v>4.492237181519999</v>
+        <v>1.541337130795</v>
       </c>
       <c r="S3">
-        <v>0.004632748917013407</v>
+        <v>0.001363264938554098</v>
       </c>
       <c r="T3">
-        <v>0.004632748917013407</v>
+        <v>0.001363264938554097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.539461</v>
       </c>
       <c r="O4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q4">
-        <v>0.3097106572213333</v>
+        <v>0.1062652118507778</v>
       </c>
       <c r="R4">
-        <v>2.787395914992</v>
+        <v>0.956386906657</v>
       </c>
       <c r="S4">
-        <v>0.00287458228153871</v>
+        <v>0.0008458945882042123</v>
       </c>
       <c r="T4">
-        <v>0.00287458228153871</v>
+        <v>0.0008458945882042121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N5">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q5">
-        <v>8.481947964463888</v>
+        <v>26.70030681383555</v>
       </c>
       <c r="R5">
-        <v>76.337531680175</v>
+        <v>240.30276132452</v>
       </c>
       <c r="S5">
-        <v>0.07872527716783312</v>
+        <v>0.212540347342753</v>
       </c>
       <c r="T5">
-        <v>0.0787252771678331</v>
+        <v>0.212540347342753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.820535</v>
       </c>
       <c r="O6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q6">
         <v>60.02612185401944</v>
@@ -818,10 +818,10 @@
         <v>540.235096686175</v>
       </c>
       <c r="S6">
-        <v>0.5571329958714845</v>
+        <v>0.4778212054807097</v>
       </c>
       <c r="T6">
-        <v>0.5571329958714843</v>
+        <v>0.4778212054807097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>13.539461</v>
       </c>
       <c r="O7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q7">
         <v>37.24571078682278</v>
@@ -880,10 +880,10 @@
         <v>335.211397081405</v>
       </c>
       <c r="S7">
-        <v>0.34569640338402</v>
+        <v>0.2964840952148541</v>
       </c>
       <c r="T7">
-        <v>0.3456964033840199</v>
+        <v>0.296484095214854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N8">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O8">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P8">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q8">
-        <v>0.08886205729277775</v>
+        <v>0.279728690127111</v>
       </c>
       <c r="R8">
-        <v>0.7997585156349999</v>
+        <v>2.517558211143999</v>
       </c>
       <c r="S8">
-        <v>0.0008247739928831273</v>
+        <v>0.002226702238887452</v>
       </c>
       <c r="T8">
-        <v>0.0008247739928831273</v>
+        <v>0.002226702238887452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.820535</v>
       </c>
       <c r="O9">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P9">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q9">
         <v>0.6288702432038888</v>
@@ -1004,10 +1004,10 @@
         <v>5.659832188834999</v>
       </c>
       <c r="S9">
-        <v>0.005836864881304182</v>
+        <v>0.005005946218371395</v>
       </c>
       <c r="T9">
-        <v>0.005836864881304182</v>
+        <v>0.005005946218371395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>13.539461</v>
       </c>
       <c r="O10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q10">
         <v>0.3902087704045555</v>
       </c>
       <c r="R10">
-        <v>3.511878933641</v>
+        <v>3.511878933640999</v>
       </c>
       <c r="S10">
-        <v>0.003621726251106474</v>
+        <v>0.003106148111938456</v>
       </c>
       <c r="T10">
-        <v>0.003621726251106474</v>
+        <v>0.003106148111938456</v>
       </c>
     </row>
   </sheetData>
